--- a/medicine/Pharmacie/Dépresseur/Dépresseur.xlsx
+++ b/medicine/Pharmacie/Dépresseur/Dépresseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9presseur</t>
+          <t>Dépresseur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un dépresseur (du latin : depressus) est une substance qui ralentit l'activité du système nerveux central, réduit l'activité fonctionnelle et la coordination motrice. Il a un effet anxiolytique, hypnotique ou sédatif[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dépresseur (du latin : depressus) est une substance qui ralentit l'activité du système nerveux central, réduit l'activité fonctionnelle et la coordination motrice. Il a un effet anxiolytique, hypnotique ou sédatif,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9presseur</t>
+          <t>Dépresseur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Dépresseurs connus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dépresseurs les plus connus sont les neuroleptiques, l'alcool, les opiacés, les narcotiques illicites, les barbituriques et les benzodiazépines[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dépresseurs les plus connus sont les neuroleptiques, l'alcool, les opiacés, les narcotiques illicites, les barbituriques et les benzodiazépines,.
 Leurs effets induisent :
 une sensation d'étourdissement ;
 une sensation de calme et de bien-être ce qui diminue l'anxiété ;
